--- a/example/Sample.xlsx
+++ b/example/Sample.xlsx
@@ -21,31 +21,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>ErrorType</t>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>loginfailed</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>systemfailed</t>
+  </si>
+  <si>
+    <t>系统失败</t>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ErrorID</t>
-  </si>
-  <si>
-    <t>ErrorType</t>
-  </si>
-  <si>
-    <t>ErrorMsg</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>loginfailed</t>
-  </si>
-  <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>systemfailed</t>
-  </si>
-  <si>
-    <t>系统失败</t>
-  </si>
-  <si>
-    <t>hi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +388,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -400,13 +401,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -414,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -422,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -433,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -447,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
